--- a/data/example_grades.xlsx
+++ b/data/example_grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakan/Programming/dionysos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314119E-B864-8748-9AD9-5FA475308B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F91EF2-835C-7842-8667-9F15404B005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Project 1</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -383,7 +386,7 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>221501001</v>
       </c>
@@ -410,8 +416,11 @@
       <c r="D2">
         <v>90</v>
       </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>221501002</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D3">
         <v>85</v>
       </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>221501003</v>
       </c>
@@ -437,6 +449,9 @@
       </c>
       <c r="D4">
         <v>92</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
